--- a/docs/orders-performance.xlsx
+++ b/docs/orders-performance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspaces\bench_2017\spring-cloud-playground\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspaces\personal\orders-services\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="51">
   <si>
     <t xml:space="preserve">Job </t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t>Increased memory up to 10G!!</t>
   </si>
+  <si>
+    <t>Client-Server latency</t>
+  </si>
 </sst>
 </file>
 
@@ -318,7 +321,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1219,7 +1221,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1258,7 +1260,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1321,7 +1323,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2769,12 +2770,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2885,6 +2888,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3990,12 +3994,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4106,6 +4112,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4579,8 +4586,428 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$100:$J$100</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0th</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 99th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 99,9th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 99,99th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 99,999th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 100th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$116:$J$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6649999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.420999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138.62700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.74700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D154-472D-9882-2B43043B753E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$117</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$100:$J$100</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0th</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 99th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 99,9th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 99,99th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 99,999th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 100th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$117:$J$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.265000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D154-472D-9882-2B43043B753E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$100:$J$100</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0th</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 99th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 99,9th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 99,99th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 99,999th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 100th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$118:$J$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.848000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.247999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D154-472D-9882-2B43043B753E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$116</c:f>
@@ -4714,13 +5141,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ECE5-4387-84FC-5EC3DF81719F}"/>
+              <c16:uniqueId val="{00000001-D154-472D-9882-2B43043B753E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$117</c:f>
@@ -4854,13 +5281,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ECE5-4387-84FC-5EC3DF81719F}"/>
+              <c16:uniqueId val="{00000003-D154-472D-9882-2B43043B753E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$118</c:f>
@@ -4994,7 +5421,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ECE5-4387-84FC-5EC3DF81719F}"/>
+              <c16:uniqueId val="{00000005-D154-472D-9882-2B43043B753E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5208,12 +5635,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5324,6 +5753,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -7791,7 +8221,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -7830,7 +8260,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -7893,7 +8323,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9726,7 +10155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11913,12 +12341,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -12029,6 +12459,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -21937,15 +22368,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>70136</xdr:rowOff>
+      <xdr:rowOff>76940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>122004</xdr:colOff>
+      <xdr:colOff>94790</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>124809</xdr:rowOff>
+      <xdr:rowOff>131613</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22257,6 +22688,406 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74923</cdr:x>
+      <cdr:y>0.92413</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89259</cdr:x>
+      <cdr:y>0.96099</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2986767" y="3923560"/>
+          <a:ext cx="571500" cy="156482"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pl-PL" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76209</cdr:x>
+      <cdr:y>0.91924</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95574</cdr:x>
+      <cdr:y>0.98503</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3038013" y="3902773"/>
+          <a:ext cx="771985" cy="279323"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t># of threads</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81312</cdr:x>
+      <cdr:y>0.92698</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99364</cdr:x>
+      <cdr:y>0.98448</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3268134" y="3935639"/>
+          <a:ext cx="725562" cy="244125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t># of threads</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79611</cdr:x>
+      <cdr:y>0.91736</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98976</cdr:x>
+      <cdr:y>0.98315</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3173639" y="3894817"/>
+          <a:ext cx="771985" cy="279323"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t># of threads</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80707</cdr:x>
+      <cdr:y>0.88531</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.9511</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3229414" y="3758746"/>
+          <a:ext cx="771985" cy="279323"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t># of threads</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -22522,8 +23353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N148" sqref="N148"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24597,7 +25428,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>43</v>

--- a/docs/orders-performance.xlsx
+++ b/docs/orders-performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="81">
   <si>
     <t xml:space="preserve">Job </t>
   </si>
@@ -178,6 +178,96 @@
   <si>
     <t>Client-Server latency</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>99th</t>
+  </si>
+  <si>
+    <t>99.9th</t>
+  </si>
+  <si>
+    <t>99.99th</t>
+  </si>
+  <si>
+    <t>99.999th</t>
+  </si>
+  <si>
+    <t>100th</t>
+  </si>
+  <si>
+    <t>execution time[s]</t>
+  </si>
+  <si>
+    <t>Total Job Time[s]</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>TRAFFIC</t>
+  </si>
+  <si>
+    <t>GetOrderRequest</t>
+  </si>
+  <si>
+    <t>NewCustomerRequest</t>
+  </si>
+  <si>
+    <t>GetProductRequest</t>
+  </si>
+  <si>
+    <t>NewProductRequest</t>
+  </si>
+  <si>
+    <t>GetCustomerRequest</t>
+  </si>
+  <si>
+    <t>NewOrderRequest</t>
+  </si>
+  <si>
+    <t>GetCustomer</t>
+  </si>
+  <si>
+    <t>GetOrders</t>
+  </si>
+  <si>
+    <t>GetProduct</t>
+  </si>
+  <si>
+    <t>CreateProduct</t>
+  </si>
+  <si>
+    <t>CreateOrders</t>
+  </si>
+  <si>
+    <t>CreateCustomer</t>
+  </si>
+  <si>
+    <t>-Xmx5g</t>
+  </si>
+  <si>
+    <t>min=0,09 ms, avg=0.116 ms</t>
+  </si>
+  <si>
+    <t>IOPS sum</t>
+  </si>
+  <si>
+    <t>Best gRPC</t>
+  </si>
+  <si>
+    <t>Best HTTPS</t>
+  </si>
+  <si>
+    <t>gRPC better</t>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +277,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +310,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,10 +345,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -258,9 +366,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -321,6 +439,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1323,6 +1442,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6833,6 +6953,380 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>gRPC Traffic IOPS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$207</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IOPS sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$N$214,Sheet1!$N$221,Sheet1!$N$228,Sheet1!$N$235)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$Q$214,Sheet1!$Q$221,Sheet1!$Q$228,Sheet1!$Q$235)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7680.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8527.9740000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8345.1759999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8502.3860000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4873-4D74-807A-BDE17E16CA09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="2056046176"/>
+        <c:axId val="2056047008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2056046176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056047008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2056047008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056046176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -8323,6 +8817,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8353,6 +8848,386 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>HTTPS Traffic IOPS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$207</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IOPS sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$N$240,Sheet1!$N$247,Sheet1!$N$254,Sheet1!$N$261,Sheet1!$N$268)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$Q$246,Sheet1!$Q$253,Sheet1!$Q$260,Sheet1!$Q$267,Sheet1!$Q$274)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4310.7380000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5583.0970000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5912.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6011.2170000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6177.4939999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F599-45A1-83B3-F480F5823B82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="2056046176"/>
+        <c:axId val="2056047008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2056046176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056047008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2056047008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056046176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -10155,6 +11030,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12863,7 +13739,87 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18143,8 +19099,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18166,11 +19122,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
             <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -18247,7 +19203,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -18257,7 +19213,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -18267,7 +19223,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -18287,7 +19243,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -18306,7 +19262,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -18343,7 +19299,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -18367,7 +19323,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -18386,7 +19342,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -18404,7 +19360,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -18412,7 +19368,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -18431,7 +19387,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -18449,7 +19405,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -18468,7 +19424,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -18497,7 +19453,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -18505,7 +19461,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -18575,7 +19531,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -18601,7 +19557,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -18633,7 +19589,999 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -22680,6 +24628,68 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Chart 29"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23351,21 +25361,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M182" sqref="M182"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O279" sqref="O279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26246,6 +28257,4443 @@
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
     </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N207" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O207" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q207" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>26</v>
+      </c>
+      <c r="B208" t="s">
+        <v>62</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" s="12">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="E208" s="12">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="F208" s="12">
+        <v>2.4670000000000001</v>
+      </c>
+      <c r="G208" s="12">
+        <v>16.673999999999999</v>
+      </c>
+      <c r="H208" s="12">
+        <v>23.047999999999998</v>
+      </c>
+      <c r="I208" s="12">
+        <v>140.43299999999999</v>
+      </c>
+      <c r="J208" s="12">
+        <v>140.44399999999999</v>
+      </c>
+      <c r="K208">
+        <v>32.533999999999999</v>
+      </c>
+      <c r="L208" s="13">
+        <v>694.80200000000002</v>
+      </c>
+      <c r="M208">
+        <v>32.654000000000003</v>
+      </c>
+      <c r="N208">
+        <v>5</v>
+      </c>
+      <c r="O208">
+        <v>22604</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>26</v>
+      </c>
+      <c r="B209" t="s">
+        <v>62</v>
+      </c>
+      <c r="C209" t="s">
+        <v>64</v>
+      </c>
+      <c r="D209" s="12">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E209" s="12">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F209" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="G209" s="12">
+        <v>8.1890000000000001</v>
+      </c>
+      <c r="H209" s="12">
+        <v>25.882999999999999</v>
+      </c>
+      <c r="I209" s="12">
+        <v>28.536999999999999</v>
+      </c>
+      <c r="J209" s="12">
+        <v>28.832000000000001</v>
+      </c>
+      <c r="K209">
+        <v>32.485999999999997</v>
+      </c>
+      <c r="L209" s="13">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="M209">
+        <v>32.654000000000003</v>
+      </c>
+      <c r="N209">
+        <v>5</v>
+      </c>
+      <c r="O209">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" t="s">
+        <v>62</v>
+      </c>
+      <c r="C210" t="s">
+        <v>65</v>
+      </c>
+      <c r="D210" s="12">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E210" s="12">
+        <v>0.372</v>
+      </c>
+      <c r="F210" s="12">
+        <v>1.86</v>
+      </c>
+      <c r="G210" s="12">
+        <v>10.394</v>
+      </c>
+      <c r="H210" s="12">
+        <v>23.103000000000002</v>
+      </c>
+      <c r="I210" s="12">
+        <v>140.27500000000001</v>
+      </c>
+      <c r="J210" s="12">
+        <v>140.38200000000001</v>
+      </c>
+      <c r="K210">
+        <v>32.558999999999997</v>
+      </c>
+      <c r="L210" s="13">
+        <v>5524.3869999999997</v>
+      </c>
+      <c r="M210">
+        <v>32.654000000000003</v>
+      </c>
+      <c r="N210">
+        <v>5</v>
+      </c>
+      <c r="O210">
+        <v>179863</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>26</v>
+      </c>
+      <c r="B211" t="s">
+        <v>62</v>
+      </c>
+      <c r="C211" t="s">
+        <v>66</v>
+      </c>
+      <c r="D211" s="12">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E211" s="12">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="F211" s="12">
+        <v>2.5720000000000001</v>
+      </c>
+      <c r="G211" s="12">
+        <v>20.454999999999998</v>
+      </c>
+      <c r="H211" s="12">
+        <v>30.576000000000001</v>
+      </c>
+      <c r="I211" s="12">
+        <v>32.715000000000003</v>
+      </c>
+      <c r="J211" s="12">
+        <v>32.953000000000003</v>
+      </c>
+      <c r="K211">
+        <v>32.465000000000003</v>
+      </c>
+      <c r="L211" s="13">
+        <v>76.084000000000003</v>
+      </c>
+      <c r="M211">
+        <v>32.654000000000003</v>
+      </c>
+      <c r="N211">
+        <v>5</v>
+      </c>
+      <c r="O211">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>26</v>
+      </c>
+      <c r="B212" t="s">
+        <v>62</v>
+      </c>
+      <c r="C212" t="s">
+        <v>67</v>
+      </c>
+      <c r="D212" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E212" s="12">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F212" s="12">
+        <v>1.962</v>
+      </c>
+      <c r="G212" s="12">
+        <v>11.244</v>
+      </c>
+      <c r="H212" s="12">
+        <v>20.488</v>
+      </c>
+      <c r="I212" s="12">
+        <v>30.266999999999999</v>
+      </c>
+      <c r="J212" s="12">
+        <v>32.670999999999999</v>
+      </c>
+      <c r="K212">
+        <v>32.534999999999997</v>
+      </c>
+      <c r="L212" s="13">
+        <v>691.52300000000002</v>
+      </c>
+      <c r="M212">
+        <v>32.654000000000003</v>
+      </c>
+      <c r="N212">
+        <v>5</v>
+      </c>
+      <c r="O212">
+        <v>22498</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>26</v>
+      </c>
+      <c r="B213" t="s">
+        <v>62</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" s="12">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E213" s="12">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="F213" s="12">
+        <v>4.4829999999999997</v>
+      </c>
+      <c r="G213" s="12">
+        <v>20.422999999999998</v>
+      </c>
+      <c r="H213" s="12">
+        <v>28.475000000000001</v>
+      </c>
+      <c r="I213" s="12">
+        <v>32.564999999999998</v>
+      </c>
+      <c r="J213" s="12">
+        <v>32.908999999999999</v>
+      </c>
+      <c r="K213">
+        <v>32.531999999999996</v>
+      </c>
+      <c r="L213" s="13">
+        <v>617.88400000000001</v>
+      </c>
+      <c r="M213">
+        <v>32.654000000000003</v>
+      </c>
+      <c r="N213">
+        <v>5</v>
+      </c>
+      <c r="O213">
+        <v>20101</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="12"/>
+      <c r="L214" s="13"/>
+      <c r="N214">
+        <v>5</v>
+      </c>
+      <c r="Q214" s="17">
+        <f>SUM(L208:L213)</f>
+        <v>7680.53</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>26</v>
+      </c>
+      <c r="B215" t="s">
+        <v>62</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" s="12">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E215" s="12">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F215" s="12">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="G215" s="12">
+        <v>20.913</v>
+      </c>
+      <c r="H215" s="12">
+        <v>27.928999999999998</v>
+      </c>
+      <c r="I215" s="12">
+        <v>99.49</v>
+      </c>
+      <c r="J215" s="12">
+        <v>153.35</v>
+      </c>
+      <c r="K215">
+        <v>58.616999999999997</v>
+      </c>
+      <c r="L215" s="13">
+        <v>766.279</v>
+      </c>
+      <c r="M215">
+        <v>58.76</v>
+      </c>
+      <c r="N215">
+        <v>10</v>
+      </c>
+      <c r="O215">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>26</v>
+      </c>
+      <c r="B216" t="s">
+        <v>62</v>
+      </c>
+      <c r="C216" t="s">
+        <v>64</v>
+      </c>
+      <c r="D216" s="12">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E216" s="12">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="F216" s="12">
+        <v>3.8969999999999998</v>
+      </c>
+      <c r="G216" s="12">
+        <v>19.981000000000002</v>
+      </c>
+      <c r="H216" s="12">
+        <v>25.943000000000001</v>
+      </c>
+      <c r="I216" s="12">
+        <v>26.09</v>
+      </c>
+      <c r="J216" s="12">
+        <v>26.106000000000002</v>
+      </c>
+      <c r="K216">
+        <v>58.578000000000003</v>
+      </c>
+      <c r="L216" s="13">
+        <v>87.745999999999995</v>
+      </c>
+      <c r="M216">
+        <v>58.76</v>
+      </c>
+      <c r="N216">
+        <v>10</v>
+      </c>
+      <c r="O216">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>26</v>
+      </c>
+      <c r="B217" t="s">
+        <v>62</v>
+      </c>
+      <c r="C217" t="s">
+        <v>65</v>
+      </c>
+      <c r="D217" s="12">
+        <v>0.183</v>
+      </c>
+      <c r="E217" s="12">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F217" s="12">
+        <v>3.492</v>
+      </c>
+      <c r="G217" s="12">
+        <v>19.347000000000001</v>
+      </c>
+      <c r="H217" s="12">
+        <v>25.786999999999999</v>
+      </c>
+      <c r="I217" s="12">
+        <v>84.72</v>
+      </c>
+      <c r="J217" s="12">
+        <v>155.44900000000001</v>
+      </c>
+      <c r="K217">
+        <v>58.639000000000003</v>
+      </c>
+      <c r="L217" s="13">
+        <v>6137.7430000000004</v>
+      </c>
+      <c r="M217">
+        <v>58.76</v>
+      </c>
+      <c r="N217">
+        <v>10</v>
+      </c>
+      <c r="O217">
+        <v>359905</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>26</v>
+      </c>
+      <c r="B218" t="s">
+        <v>62</v>
+      </c>
+      <c r="C218" t="s">
+        <v>66</v>
+      </c>
+      <c r="D218" s="12">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E218" s="12">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F218" s="12">
+        <v>4.0069999999999997</v>
+      </c>
+      <c r="G218" s="12">
+        <v>20.558</v>
+      </c>
+      <c r="H218" s="12">
+        <v>26.498000000000001</v>
+      </c>
+      <c r="I218" s="12">
+        <v>31.684000000000001</v>
+      </c>
+      <c r="J218" s="12">
+        <v>32.26</v>
+      </c>
+      <c r="K218">
+        <v>58.536999999999999</v>
+      </c>
+      <c r="L218" s="13">
+        <v>88.201999999999998</v>
+      </c>
+      <c r="M218">
+        <v>58.76</v>
+      </c>
+      <c r="N218">
+        <v>10</v>
+      </c>
+      <c r="O218">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>26</v>
+      </c>
+      <c r="B219" t="s">
+        <v>62</v>
+      </c>
+      <c r="C219" t="s">
+        <v>67</v>
+      </c>
+      <c r="D219" s="12">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E219" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="F219" s="12">
+        <v>3.423</v>
+      </c>
+      <c r="G219" s="12">
+        <v>19.117999999999999</v>
+      </c>
+      <c r="H219" s="12">
+        <v>26.567</v>
+      </c>
+      <c r="I219" s="12">
+        <v>102.255</v>
+      </c>
+      <c r="J219" s="12">
+        <v>153.976</v>
+      </c>
+      <c r="K219">
+        <v>58.610999999999997</v>
+      </c>
+      <c r="L219" s="13">
+        <v>766.01300000000003</v>
+      </c>
+      <c r="M219">
+        <v>58.76</v>
+      </c>
+      <c r="N219">
+        <v>10</v>
+      </c>
+      <c r="O219">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>26</v>
+      </c>
+      <c r="B220" t="s">
+        <v>62</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E220" s="12">
+        <v>3.21</v>
+      </c>
+      <c r="F220" s="12">
+        <v>10.673</v>
+      </c>
+      <c r="G220" s="12">
+        <v>26.952000000000002</v>
+      </c>
+      <c r="H220" s="12">
+        <v>39.637999999999998</v>
+      </c>
+      <c r="I220" s="12">
+        <v>157.98500000000001</v>
+      </c>
+      <c r="J220" s="12">
+        <v>158.26</v>
+      </c>
+      <c r="K220">
+        <v>58.622</v>
+      </c>
+      <c r="L220" s="13">
+        <v>681.99099999999999</v>
+      </c>
+      <c r="M220">
+        <v>58.76</v>
+      </c>
+      <c r="N220">
+        <v>10</v>
+      </c>
+      <c r="O220">
+        <v>39979</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="12"/>
+      <c r="L221" s="13"/>
+      <c r="N221">
+        <v>10</v>
+      </c>
+      <c r="Q221" s="17">
+        <f>SUM(L215:L220)</f>
+        <v>8527.9740000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>26</v>
+      </c>
+      <c r="B222" t="s">
+        <v>62</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" s="12">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E222" s="12">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="F222" s="12">
+        <v>6.8010000000000002</v>
+      </c>
+      <c r="G222" s="12">
+        <v>25.33</v>
+      </c>
+      <c r="H222" s="12">
+        <v>31.597999999999999</v>
+      </c>
+      <c r="I222" s="12">
+        <v>36.305999999999997</v>
+      </c>
+      <c r="J222" s="12">
+        <v>37.006999999999998</v>
+      </c>
+      <c r="K222">
+        <v>89.870999999999995</v>
+      </c>
+      <c r="L222" s="13">
+        <v>750.12</v>
+      </c>
+      <c r="M222">
+        <v>90.036000000000001</v>
+      </c>
+      <c r="N222">
+        <v>15</v>
+      </c>
+      <c r="O222">
+        <v>67414</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>26</v>
+      </c>
+      <c r="B223" t="s">
+        <v>62</v>
+      </c>
+      <c r="C223" t="s">
+        <v>64</v>
+      </c>
+      <c r="D223" s="12">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E223" s="12">
+        <v>1.468</v>
+      </c>
+      <c r="F223" s="12">
+        <v>7.3159999999999998</v>
+      </c>
+      <c r="G223" s="12">
+        <v>24.146999999999998</v>
+      </c>
+      <c r="H223" s="12">
+        <v>30.928999999999998</v>
+      </c>
+      <c r="I223" s="12">
+        <v>32.579000000000001</v>
+      </c>
+      <c r="J223" s="12">
+        <v>32.762999999999998</v>
+      </c>
+      <c r="K223">
+        <v>89.804000000000002</v>
+      </c>
+      <c r="L223" s="13">
+        <v>83.314999999999998</v>
+      </c>
+      <c r="M223">
+        <v>90.036000000000001</v>
+      </c>
+      <c r="N223">
+        <v>15</v>
+      </c>
+      <c r="O223">
+        <v>7482</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>26</v>
+      </c>
+      <c r="B224" t="s">
+        <v>62</v>
+      </c>
+      <c r="C224" t="s">
+        <v>65</v>
+      </c>
+      <c r="D224" s="12">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E224" s="12">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F224" s="12">
+        <v>5.3540000000000001</v>
+      </c>
+      <c r="G224" s="12">
+        <v>23.567</v>
+      </c>
+      <c r="H224" s="12">
+        <v>30.684999999999999</v>
+      </c>
+      <c r="I224" s="12">
+        <v>125.35299999999999</v>
+      </c>
+      <c r="J224" s="12">
+        <v>180.745</v>
+      </c>
+      <c r="K224">
+        <v>89.881</v>
+      </c>
+      <c r="L224" s="13">
+        <v>6000.4340000000002</v>
+      </c>
+      <c r="M224">
+        <v>90.036000000000001</v>
+      </c>
+      <c r="N224">
+        <v>15</v>
+      </c>
+      <c r="O224">
+        <v>539319</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>26</v>
+      </c>
+      <c r="B225" t="s">
+        <v>62</v>
+      </c>
+      <c r="C225" t="s">
+        <v>66</v>
+      </c>
+      <c r="D225" s="12">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E225" s="12">
+        <v>1.522</v>
+      </c>
+      <c r="F225" s="12">
+        <v>7.3490000000000002</v>
+      </c>
+      <c r="G225" s="12">
+        <v>25.411000000000001</v>
+      </c>
+      <c r="H225" s="12">
+        <v>32.078000000000003</v>
+      </c>
+      <c r="I225" s="12">
+        <v>34.692999999999998</v>
+      </c>
+      <c r="J225" s="12">
+        <v>34.984000000000002</v>
+      </c>
+      <c r="K225">
+        <v>89.712000000000003</v>
+      </c>
+      <c r="L225" s="13">
+        <v>84.215000000000003</v>
+      </c>
+      <c r="M225">
+        <v>90.036000000000001</v>
+      </c>
+      <c r="N225">
+        <v>15</v>
+      </c>
+      <c r="O225">
+        <v>7555</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>26</v>
+      </c>
+      <c r="B226" t="s">
+        <v>62</v>
+      </c>
+      <c r="C226" t="s">
+        <v>67</v>
+      </c>
+      <c r="D226" s="12">
+        <v>0.214</v>
+      </c>
+      <c r="E226" s="12">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F226" s="12">
+        <v>5.2770000000000001</v>
+      </c>
+      <c r="G226" s="12">
+        <v>23.024000000000001</v>
+      </c>
+      <c r="H226" s="12">
+        <v>29.742999999999999</v>
+      </c>
+      <c r="I226" s="12">
+        <v>39.744</v>
+      </c>
+      <c r="J226" s="12">
+        <v>39.988999999999997</v>
+      </c>
+      <c r="K226">
+        <v>89.837999999999994</v>
+      </c>
+      <c r="L226" s="13">
+        <v>755.09199999999998</v>
+      </c>
+      <c r="M226">
+        <v>90.036000000000001</v>
+      </c>
+      <c r="N226">
+        <v>15</v>
+      </c>
+      <c r="O226">
+        <v>67836</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>26</v>
+      </c>
+      <c r="B227" t="s">
+        <v>62</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" s="12">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="E227" s="12">
+        <v>6.05</v>
+      </c>
+      <c r="F227" s="12">
+        <v>25.849</v>
+      </c>
+      <c r="G227" s="12">
+        <v>35.973999999999997</v>
+      </c>
+      <c r="H227" s="12">
+        <v>184.64099999999999</v>
+      </c>
+      <c r="I227" s="12">
+        <v>190.446</v>
+      </c>
+      <c r="J227" s="12">
+        <v>190.58500000000001</v>
+      </c>
+      <c r="K227">
+        <v>89.873000000000005</v>
+      </c>
+      <c r="L227" s="13">
+        <v>672</v>
+      </c>
+      <c r="M227">
+        <v>90.036000000000001</v>
+      </c>
+      <c r="N227">
+        <v>15</v>
+      </c>
+      <c r="O227">
+        <v>60394</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="12"/>
+      <c r="J228" s="12"/>
+      <c r="L228" s="13"/>
+      <c r="N228">
+        <v>15</v>
+      </c>
+      <c r="Q228" s="17">
+        <f>SUM(L222:L227)</f>
+        <v>8345.1759999999995</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>26</v>
+      </c>
+      <c r="B229" t="s">
+        <v>62</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="E229" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="F229" s="12">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="G229" s="12">
+        <v>29.597999999999999</v>
+      </c>
+      <c r="H229" s="12">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="I229" s="12">
+        <v>189.274</v>
+      </c>
+      <c r="J229" s="12">
+        <v>190.47300000000001</v>
+      </c>
+      <c r="K229">
+        <v>117.577</v>
+      </c>
+      <c r="L229" s="13">
+        <v>763.88199999999995</v>
+      </c>
+      <c r="M229">
+        <v>117.825</v>
+      </c>
+      <c r="N229">
+        <v>20</v>
+      </c>
+      <c r="O229">
+        <v>89815</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>26</v>
+      </c>
+      <c r="B230" t="s">
+        <v>62</v>
+      </c>
+      <c r="C230" t="s">
+        <v>64</v>
+      </c>
+      <c r="D230" s="12">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E230" s="12">
+        <v>2.024</v>
+      </c>
+      <c r="F230" s="12">
+        <v>10.587</v>
+      </c>
+      <c r="G230" s="12">
+        <v>31.376000000000001</v>
+      </c>
+      <c r="H230" s="12">
+        <v>38.764000000000003</v>
+      </c>
+      <c r="I230" s="12">
+        <v>175.875</v>
+      </c>
+      <c r="J230" s="12">
+        <v>191.10900000000001</v>
+      </c>
+      <c r="K230">
+        <v>117.584</v>
+      </c>
+      <c r="L230" s="13">
+        <v>84.790999999999997</v>
+      </c>
+      <c r="M230">
+        <v>117.825</v>
+      </c>
+      <c r="N230">
+        <v>20</v>
+      </c>
+      <c r="O230">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>26</v>
+      </c>
+      <c r="B231" t="s">
+        <v>62</v>
+      </c>
+      <c r="C231" t="s">
+        <v>65</v>
+      </c>
+      <c r="D231" s="12">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E231" s="12">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F231" s="12">
+        <v>7.2210000000000001</v>
+      </c>
+      <c r="G231" s="12">
+        <v>27.552</v>
+      </c>
+      <c r="H231" s="12">
+        <v>35.896999999999998</v>
+      </c>
+      <c r="I231" s="12">
+        <v>163.56200000000001</v>
+      </c>
+      <c r="J231" s="12">
+        <v>192.31800000000001</v>
+      </c>
+      <c r="K231">
+        <v>117.621</v>
+      </c>
+      <c r="L231" s="13">
+        <v>6124.6639999999998</v>
+      </c>
+      <c r="M231">
+        <v>117.825</v>
+      </c>
+      <c r="N231">
+        <v>20</v>
+      </c>
+      <c r="O231">
+        <v>720383</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>26</v>
+      </c>
+      <c r="B232" t="s">
+        <v>62</v>
+      </c>
+      <c r="C232" t="s">
+        <v>66</v>
+      </c>
+      <c r="D232" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E232" s="12">
+        <v>2.028</v>
+      </c>
+      <c r="F232" s="12">
+        <v>10.01</v>
+      </c>
+      <c r="G232" s="12">
+        <v>30.096</v>
+      </c>
+      <c r="H232" s="12">
+        <v>39.725000000000001</v>
+      </c>
+      <c r="I232" s="12">
+        <v>41.823</v>
+      </c>
+      <c r="J232" s="12">
+        <v>42.055999999999997</v>
+      </c>
+      <c r="K232">
+        <v>117.572</v>
+      </c>
+      <c r="L232" s="13">
+        <v>85.147999999999996</v>
+      </c>
+      <c r="M232">
+        <v>117.825</v>
+      </c>
+      <c r="N232">
+        <v>20</v>
+      </c>
+      <c r="O232">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>26</v>
+      </c>
+      <c r="B233" t="s">
+        <v>62</v>
+      </c>
+      <c r="C233" t="s">
+        <v>67</v>
+      </c>
+      <c r="D233" s="12">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E233" s="12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F233" s="12">
+        <v>7.2050000000000001</v>
+      </c>
+      <c r="G233" s="12">
+        <v>28.952999999999999</v>
+      </c>
+      <c r="H233" s="12">
+        <v>38.843000000000004</v>
+      </c>
+      <c r="I233" s="12">
+        <v>189.18700000000001</v>
+      </c>
+      <c r="J233" s="12">
+        <v>189.50899999999999</v>
+      </c>
+      <c r="K233">
+        <v>117.607</v>
+      </c>
+      <c r="L233" s="13">
+        <v>765.56700000000001</v>
+      </c>
+      <c r="M233">
+        <v>117.825</v>
+      </c>
+      <c r="N233">
+        <v>20</v>
+      </c>
+      <c r="O233">
+        <v>90036</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>26</v>
+      </c>
+      <c r="B234" t="s">
+        <v>62</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" s="12">
+        <v>0.871</v>
+      </c>
+      <c r="E234" s="12">
+        <v>8.3309999999999995</v>
+      </c>
+      <c r="F234" s="12">
+        <v>32.569000000000003</v>
+      </c>
+      <c r="G234" s="12">
+        <v>45.731999999999999</v>
+      </c>
+      <c r="H234" s="12">
+        <v>170.59800000000001</v>
+      </c>
+      <c r="I234" s="12">
+        <v>200.25899999999999</v>
+      </c>
+      <c r="J234" s="12">
+        <v>206.01599999999999</v>
+      </c>
+      <c r="K234">
+        <v>117.62</v>
+      </c>
+      <c r="L234" s="13">
+        <v>678.33399999999995</v>
+      </c>
+      <c r="M234">
+        <v>117.825</v>
+      </c>
+      <c r="N234">
+        <v>20</v>
+      </c>
+      <c r="O234">
+        <v>79785</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="12"/>
+      <c r="J235" s="12"/>
+      <c r="L235" s="13"/>
+      <c r="N235">
+        <v>20</v>
+      </c>
+      <c r="Q235" s="17">
+        <f>SUM(L229:L234)</f>
+        <v>8502.3860000000004</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>26</v>
+      </c>
+      <c r="B236" t="s">
+        <v>62</v>
+      </c>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="12"/>
+      <c r="J236" s="12"/>
+      <c r="L236" s="13"/>
+    </row>
+    <row r="239" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N239" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O239" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q239" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>29</v>
+      </c>
+      <c r="B240" t="s">
+        <v>62</v>
+      </c>
+      <c r="C240" t="s">
+        <v>69</v>
+      </c>
+      <c r="D240">
+        <v>0.439</v>
+      </c>
+      <c r="E240">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="F240">
+        <v>4.7279999999999998</v>
+      </c>
+      <c r="G240">
+        <v>11.039</v>
+      </c>
+      <c r="H240">
+        <v>19.847999999999999</v>
+      </c>
+      <c r="I240">
+        <v>31.888000000000002</v>
+      </c>
+      <c r="J240">
+        <v>33.679000000000002</v>
+      </c>
+      <c r="K240">
+        <v>57.982999999999997</v>
+      </c>
+      <c r="L240">
+        <v>389.89</v>
+      </c>
+      <c r="M240">
+        <v>58.110999999999997</v>
+      </c>
+      <c r="N240">
+        <v>5</v>
+      </c>
+      <c r="O240">
+        <v>22607</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>29</v>
+      </c>
+      <c r="B241" t="s">
+        <v>62</v>
+      </c>
+      <c r="C241" t="s">
+        <v>70</v>
+      </c>
+      <c r="D241">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E241">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F241">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="G241">
+        <v>11.851000000000001</v>
+      </c>
+      <c r="H241">
+        <v>19.166</v>
+      </c>
+      <c r="I241">
+        <v>27.003</v>
+      </c>
+      <c r="J241">
+        <v>27.145</v>
+      </c>
+      <c r="K241">
+        <v>57.957000000000001</v>
+      </c>
+      <c r="L241">
+        <v>389.66800000000001</v>
+      </c>
+      <c r="M241">
+        <v>58.110999999999997</v>
+      </c>
+      <c r="N241">
+        <v>5</v>
+      </c>
+      <c r="O241">
+        <v>22584</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>29</v>
+      </c>
+      <c r="B242" t="s">
+        <v>62</v>
+      </c>
+      <c r="C242" t="s">
+        <v>71</v>
+      </c>
+      <c r="D242">
+        <v>0.43</v>
+      </c>
+      <c r="E242">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F242">
+        <v>4.8879999999999999</v>
+      </c>
+      <c r="G242">
+        <v>11.500999999999999</v>
+      </c>
+      <c r="H242">
+        <v>24.95</v>
+      </c>
+      <c r="I242">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="J242">
+        <v>35.591000000000001</v>
+      </c>
+      <c r="K242">
+        <v>58.009</v>
+      </c>
+      <c r="L242">
+        <v>3100.607</v>
+      </c>
+      <c r="M242">
+        <v>58.110999999999997</v>
+      </c>
+      <c r="N242">
+        <v>5</v>
+      </c>
+      <c r="O242">
+        <v>179860</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>29</v>
+      </c>
+      <c r="B243" t="s">
+        <v>62</v>
+      </c>
+      <c r="C243" t="s">
+        <v>72</v>
+      </c>
+      <c r="D243">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="E243">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="F243">
+        <v>4.681</v>
+      </c>
+      <c r="G243">
+        <v>9.9</v>
+      </c>
+      <c r="H243">
+        <v>14.006</v>
+      </c>
+      <c r="I243">
+        <v>15.063000000000001</v>
+      </c>
+      <c r="J243">
+        <v>15.180999999999999</v>
+      </c>
+      <c r="K243">
+        <v>57.838000000000001</v>
+      </c>
+      <c r="L243">
+        <v>43.103000000000002</v>
+      </c>
+      <c r="M243">
+        <v>58.110999999999997</v>
+      </c>
+      <c r="N243">
+        <v>5</v>
+      </c>
+      <c r="O243">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>29</v>
+      </c>
+      <c r="B244" t="s">
+        <v>62</v>
+      </c>
+      <c r="C244" t="s">
+        <v>73</v>
+      </c>
+      <c r="D244">
+        <v>0.64</v>
+      </c>
+      <c r="E244">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="F244">
+        <v>6.6260000000000003</v>
+      </c>
+      <c r="G244">
+        <v>14.612</v>
+      </c>
+      <c r="H244">
+        <v>25.952000000000002</v>
+      </c>
+      <c r="I244">
+        <v>36.469000000000001</v>
+      </c>
+      <c r="J244">
+        <v>36.689</v>
+      </c>
+      <c r="K244">
+        <v>57.972999999999999</v>
+      </c>
+      <c r="L244">
+        <v>343.06200000000001</v>
+      </c>
+      <c r="M244">
+        <v>58.110999999999997</v>
+      </c>
+      <c r="N244">
+        <v>5</v>
+      </c>
+      <c r="O244">
+        <v>19888</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>29</v>
+      </c>
+      <c r="B245" t="s">
+        <v>62</v>
+      </c>
+      <c r="C245" t="s">
+        <v>74</v>
+      </c>
+      <c r="D245">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="E245">
+        <v>0.84</v>
+      </c>
+      <c r="F245">
+        <v>4.907</v>
+      </c>
+      <c r="G245">
+        <v>10.82</v>
+      </c>
+      <c r="H245">
+        <v>17.024000000000001</v>
+      </c>
+      <c r="I245">
+        <v>18.861000000000001</v>
+      </c>
+      <c r="J245">
+        <v>19.065000000000001</v>
+      </c>
+      <c r="K245">
+        <v>57.826999999999998</v>
+      </c>
+      <c r="L245">
+        <v>44.408000000000001</v>
+      </c>
+      <c r="M245">
+        <v>58.110999999999997</v>
+      </c>
+      <c r="N245">
+        <v>5</v>
+      </c>
+      <c r="O245">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q246" s="17">
+        <f>SUM(L240:L245)</f>
+        <v>4310.7380000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>29</v>
+      </c>
+      <c r="B247" t="s">
+        <v>62</v>
+      </c>
+      <c r="C247" t="s">
+        <v>69</v>
+      </c>
+      <c r="D247">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="E247">
+        <v>1.387</v>
+      </c>
+      <c r="F247">
+        <v>6.625</v>
+      </c>
+      <c r="G247">
+        <v>12.61</v>
+      </c>
+      <c r="H247">
+        <v>18.927</v>
+      </c>
+      <c r="I247">
+        <v>26.853999999999999</v>
+      </c>
+      <c r="J247">
+        <v>28.315999999999999</v>
+      </c>
+      <c r="K247">
+        <v>89.555000000000007</v>
+      </c>
+      <c r="L247">
+        <v>501.30599999999998</v>
+      </c>
+      <c r="M247">
+        <v>89.685000000000002</v>
+      </c>
+      <c r="N247">
+        <v>10</v>
+      </c>
+      <c r="O247">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>29</v>
+      </c>
+      <c r="B248" t="s">
+        <v>62</v>
+      </c>
+      <c r="C248" t="s">
+        <v>70</v>
+      </c>
+      <c r="D248">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E248">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="F248">
+        <v>7.3070000000000004</v>
+      </c>
+      <c r="G248">
+        <v>12.734</v>
+      </c>
+      <c r="H248">
+        <v>18.161999999999999</v>
+      </c>
+      <c r="I248">
+        <v>24.798999999999999</v>
+      </c>
+      <c r="J248">
+        <v>26.318000000000001</v>
+      </c>
+      <c r="K248">
+        <v>89.539000000000001</v>
+      </c>
+      <c r="L248">
+        <v>501.726</v>
+      </c>
+      <c r="M248">
+        <v>89.685000000000002</v>
+      </c>
+      <c r="N248">
+        <v>10</v>
+      </c>
+      <c r="O248">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B249" t="s">
+        <v>62</v>
+      </c>
+      <c r="C249" t="s">
+        <v>71</v>
+      </c>
+      <c r="D249">
+        <v>0.434</v>
+      </c>
+      <c r="E249">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="F249">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="G249">
+        <v>12.356</v>
+      </c>
+      <c r="H249">
+        <v>19.547000000000001</v>
+      </c>
+      <c r="I249">
+        <v>25.622</v>
+      </c>
+      <c r="J249">
+        <v>30.9</v>
+      </c>
+      <c r="K249">
+        <v>89.563999999999993</v>
+      </c>
+      <c r="L249">
+        <v>4021.415</v>
+      </c>
+      <c r="M249">
+        <v>89.685000000000002</v>
+      </c>
+      <c r="N249">
+        <v>10</v>
+      </c>
+      <c r="O249">
+        <v>360174</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>29</v>
+      </c>
+      <c r="B250" t="s">
+        <v>62</v>
+      </c>
+      <c r="C250" t="s">
+        <v>72</v>
+      </c>
+      <c r="D250">
+        <v>0.45</v>
+      </c>
+      <c r="E250">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="F250">
+        <v>7.7030000000000003</v>
+      </c>
+      <c r="G250">
+        <v>16.295000000000002</v>
+      </c>
+      <c r="H250">
+        <v>19.806999999999999</v>
+      </c>
+      <c r="I250">
+        <v>21.625</v>
+      </c>
+      <c r="J250">
+        <v>21.827000000000002</v>
+      </c>
+      <c r="K250">
+        <v>89.450999999999993</v>
+      </c>
+      <c r="L250">
+        <v>55.393000000000001</v>
+      </c>
+      <c r="M250">
+        <v>89.685000000000002</v>
+      </c>
+      <c r="N250">
+        <v>10</v>
+      </c>
+      <c r="O250">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>29</v>
+      </c>
+      <c r="B251" t="s">
+        <v>62</v>
+      </c>
+      <c r="C251" t="s">
+        <v>73</v>
+      </c>
+      <c r="D251">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E251">
+        <v>1.67</v>
+      </c>
+      <c r="F251">
+        <v>8.4629999999999992</v>
+      </c>
+      <c r="G251">
+        <v>13.367000000000001</v>
+      </c>
+      <c r="H251">
+        <v>19.898</v>
+      </c>
+      <c r="I251">
+        <v>28.922999999999998</v>
+      </c>
+      <c r="J251">
+        <v>29.803999999999998</v>
+      </c>
+      <c r="K251">
+        <v>89.528999999999996</v>
+      </c>
+      <c r="L251">
+        <v>448.05</v>
+      </c>
+      <c r="M251">
+        <v>89.685000000000002</v>
+      </c>
+      <c r="N251">
+        <v>10</v>
+      </c>
+      <c r="O251">
+        <v>40113</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>29</v>
+      </c>
+      <c r="B252" t="s">
+        <v>62</v>
+      </c>
+      <c r="C252" t="s">
+        <v>74</v>
+      </c>
+      <c r="D252">
+        <v>0.45</v>
+      </c>
+      <c r="E252">
+        <v>1.379</v>
+      </c>
+      <c r="F252">
+        <v>6.1609999999999996</v>
+      </c>
+      <c r="G252">
+        <v>12.532999999999999</v>
+      </c>
+      <c r="H252">
+        <v>15.648999999999999</v>
+      </c>
+      <c r="I252">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="J252">
+        <v>16.384</v>
+      </c>
+      <c r="K252">
+        <v>89.483000000000004</v>
+      </c>
+      <c r="L252">
+        <v>55.207000000000001</v>
+      </c>
+      <c r="M252">
+        <v>89.685000000000002</v>
+      </c>
+      <c r="N252">
+        <v>10</v>
+      </c>
+      <c r="O252">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q253" s="17">
+        <f>SUM(L247:L252)</f>
+        <v>5583.0970000000007</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>29</v>
+      </c>
+      <c r="B254" t="s">
+        <v>62</v>
+      </c>
+      <c r="C254" t="s">
+        <v>69</v>
+      </c>
+      <c r="D254">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="E254">
+        <v>2.028</v>
+      </c>
+      <c r="F254">
+        <v>9.3919999999999995</v>
+      </c>
+      <c r="G254">
+        <v>16.62</v>
+      </c>
+      <c r="H254">
+        <v>27.327000000000002</v>
+      </c>
+      <c r="I254">
+        <v>743.60400000000004</v>
+      </c>
+      <c r="J254">
+        <v>743.76499999999999</v>
+      </c>
+      <c r="K254">
+        <v>126.84099999999999</v>
+      </c>
+      <c r="L254">
+        <v>531.70500000000004</v>
+      </c>
+      <c r="M254">
+        <v>126.971</v>
+      </c>
+      <c r="N254">
+        <v>15</v>
+      </c>
+      <c r="O254">
+        <v>67442</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>29</v>
+      </c>
+      <c r="B255" t="s">
+        <v>62</v>
+      </c>
+      <c r="C255" t="s">
+        <v>70</v>
+      </c>
+      <c r="D255">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E255">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="F255">
+        <v>9.7710000000000008</v>
+      </c>
+      <c r="G255">
+        <v>16.611000000000001</v>
+      </c>
+      <c r="H255">
+        <v>34.722000000000001</v>
+      </c>
+      <c r="I255">
+        <v>744.27200000000005</v>
+      </c>
+      <c r="J255">
+        <v>744.71699999999998</v>
+      </c>
+      <c r="K255">
+        <v>126.828</v>
+      </c>
+      <c r="L255">
+        <v>532.78499999999997</v>
+      </c>
+      <c r="M255">
+        <v>126.971</v>
+      </c>
+      <c r="N255">
+        <v>15</v>
+      </c>
+      <c r="O255">
+        <v>67572</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>29</v>
+      </c>
+      <c r="B256" t="s">
+        <v>62</v>
+      </c>
+      <c r="C256" t="s">
+        <v>71</v>
+      </c>
+      <c r="D256">
+        <v>0.433</v>
+      </c>
+      <c r="E256">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="F256">
+        <v>9.3650000000000002</v>
+      </c>
+      <c r="G256">
+        <v>16.387</v>
+      </c>
+      <c r="H256">
+        <v>28.443999999999999</v>
+      </c>
+      <c r="I256">
+        <v>743.89300000000003</v>
+      </c>
+      <c r="J256">
+        <v>746.24099999999999</v>
+      </c>
+      <c r="K256">
+        <v>126.85299999999999</v>
+      </c>
+      <c r="L256">
+        <v>4256.107</v>
+      </c>
+      <c r="M256">
+        <v>126.971</v>
+      </c>
+      <c r="N256">
+        <v>15</v>
+      </c>
+      <c r="O256">
+        <v>539900</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>29</v>
+      </c>
+      <c r="B257" t="s">
+        <v>62</v>
+      </c>
+      <c r="C257" t="s">
+        <v>72</v>
+      </c>
+      <c r="D257">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E257">
+        <v>1.9910000000000001</v>
+      </c>
+      <c r="F257">
+        <v>9.44</v>
+      </c>
+      <c r="G257">
+        <v>17.117999999999999</v>
+      </c>
+      <c r="H257">
+        <v>28.01</v>
+      </c>
+      <c r="I257">
+        <v>34.4</v>
+      </c>
+      <c r="J257">
+        <v>35.11</v>
+      </c>
+      <c r="K257">
+        <v>126.774</v>
+      </c>
+      <c r="L257">
+        <v>59.570999999999998</v>
+      </c>
+      <c r="M257">
+        <v>126.971</v>
+      </c>
+      <c r="N257">
+        <v>15</v>
+      </c>
+      <c r="O257">
+        <v>7552</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>29</v>
+      </c>
+      <c r="B258" t="s">
+        <v>62</v>
+      </c>
+      <c r="C258" t="s">
+        <v>73</v>
+      </c>
+      <c r="D258">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E258">
+        <v>2.3140000000000001</v>
+      </c>
+      <c r="F258">
+        <v>11.065</v>
+      </c>
+      <c r="G258">
+        <v>19.443000000000001</v>
+      </c>
+      <c r="H258">
+        <v>28.952000000000002</v>
+      </c>
+      <c r="I258">
+        <v>44.881999999999998</v>
+      </c>
+      <c r="J258">
+        <v>51.55</v>
+      </c>
+      <c r="K258">
+        <v>126.827</v>
+      </c>
+      <c r="L258">
+        <v>473.18</v>
+      </c>
+      <c r="M258">
+        <v>126.971</v>
+      </c>
+      <c r="N258">
+        <v>15</v>
+      </c>
+      <c r="O258">
+        <v>60012</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>29</v>
+      </c>
+      <c r="B259" t="s">
+        <v>62</v>
+      </c>
+      <c r="C259" t="s">
+        <v>74</v>
+      </c>
+      <c r="D259">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E259">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="F259">
+        <v>9.09</v>
+      </c>
+      <c r="G259">
+        <v>14.962</v>
+      </c>
+      <c r="H259">
+        <v>23.452999999999999</v>
+      </c>
+      <c r="I259">
+        <v>24.408000000000001</v>
+      </c>
+      <c r="J259">
+        <v>24.513999999999999</v>
+      </c>
+      <c r="K259">
+        <v>126.714</v>
+      </c>
+      <c r="L259">
+        <v>59.362000000000002</v>
+      </c>
+      <c r="M259">
+        <v>126.971</v>
+      </c>
+      <c r="N259">
+        <v>15</v>
+      </c>
+      <c r="O259">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q260" s="17">
+        <f>SUM(L254:L259)</f>
+        <v>5912.71</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>29</v>
+      </c>
+      <c r="B261" t="s">
+        <v>62</v>
+      </c>
+      <c r="C261" t="s">
+        <v>69</v>
+      </c>
+      <c r="D261">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E261">
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="F261">
+        <v>11.183</v>
+      </c>
+      <c r="G261">
+        <v>19.995999999999999</v>
+      </c>
+      <c r="H261">
+        <v>38.024000000000001</v>
+      </c>
+      <c r="I261">
+        <v>135.67400000000001</v>
+      </c>
+      <c r="J261">
+        <v>787.81700000000001</v>
+      </c>
+      <c r="K261">
+        <v>166.334</v>
+      </c>
+      <c r="L261">
+        <v>541.91899999999998</v>
+      </c>
+      <c r="M261">
+        <v>166.52199999999999</v>
+      </c>
+      <c r="N261">
+        <v>20</v>
+      </c>
+      <c r="O261">
+        <v>90139</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>29</v>
+      </c>
+      <c r="B262" t="s">
+        <v>62</v>
+      </c>
+      <c r="C262" t="s">
+        <v>70</v>
+      </c>
+      <c r="D262">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="E262">
+        <v>2.8290000000000002</v>
+      </c>
+      <c r="F262">
+        <v>11.74</v>
+      </c>
+      <c r="G262">
+        <v>21.530999999999999</v>
+      </c>
+      <c r="H262">
+        <v>35.564</v>
+      </c>
+      <c r="I262">
+        <v>805.12800000000004</v>
+      </c>
+      <c r="J262">
+        <v>910.66600000000005</v>
+      </c>
+      <c r="K262">
+        <v>166.31100000000001</v>
+      </c>
+      <c r="L262">
+        <v>538.99</v>
+      </c>
+      <c r="M262">
+        <v>166.52199999999999</v>
+      </c>
+      <c r="N262">
+        <v>20</v>
+      </c>
+      <c r="O262">
+        <v>89640</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>29</v>
+      </c>
+      <c r="B263" t="s">
+        <v>62</v>
+      </c>
+      <c r="C263" t="s">
+        <v>71</v>
+      </c>
+      <c r="D263">
+        <v>0.439</v>
+      </c>
+      <c r="E263">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="F263">
+        <v>11.23</v>
+      </c>
+      <c r="G263">
+        <v>20.437999999999999</v>
+      </c>
+      <c r="H263">
+        <v>38.956000000000003</v>
+      </c>
+      <c r="I263">
+        <v>905.03099999999995</v>
+      </c>
+      <c r="J263">
+        <v>906.82799999999997</v>
+      </c>
+      <c r="K263">
+        <v>166.375</v>
+      </c>
+      <c r="L263">
+        <v>4330.1760000000004</v>
+      </c>
+      <c r="M263">
+        <v>166.52199999999999</v>
+      </c>
+      <c r="N263">
+        <v>20</v>
+      </c>
+      <c r="O263">
+        <v>720433</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>29</v>
+      </c>
+      <c r="B264" t="s">
+        <v>62</v>
+      </c>
+      <c r="C264" t="s">
+        <v>72</v>
+      </c>
+      <c r="D264">
+        <v>0.45</v>
+      </c>
+      <c r="E264">
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="F264">
+        <v>11.721</v>
+      </c>
+      <c r="G264">
+        <v>25.015999999999998</v>
+      </c>
+      <c r="H264">
+        <v>42.01</v>
+      </c>
+      <c r="I264">
+        <v>712.18899999999996</v>
+      </c>
+      <c r="J264">
+        <v>786.654</v>
+      </c>
+      <c r="K264">
+        <v>166.3</v>
+      </c>
+      <c r="L264">
+        <v>59.634</v>
+      </c>
+      <c r="M264">
+        <v>166.52199999999999</v>
+      </c>
+      <c r="N264">
+        <v>20</v>
+      </c>
+      <c r="O264">
+        <v>9917</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>29</v>
+      </c>
+      <c r="B265" t="s">
+        <v>62</v>
+      </c>
+      <c r="C265" t="s">
+        <v>73</v>
+      </c>
+      <c r="D265">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E265">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="F265">
+        <v>13.801</v>
+      </c>
+      <c r="G265">
+        <v>25.425999999999998</v>
+      </c>
+      <c r="H265">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="I265">
+        <v>904.173</v>
+      </c>
+      <c r="J265">
+        <v>904.69899999999996</v>
+      </c>
+      <c r="K265">
+        <v>166.28800000000001</v>
+      </c>
+      <c r="L265">
+        <v>480.47699999999998</v>
+      </c>
+      <c r="M265">
+        <v>166.52199999999999</v>
+      </c>
+      <c r="N265">
+        <v>20</v>
+      </c>
+      <c r="O265">
+        <v>79897</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>29</v>
+      </c>
+      <c r="B266" t="s">
+        <v>62</v>
+      </c>
+      <c r="C266" t="s">
+        <v>74</v>
+      </c>
+      <c r="D266">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E266">
+        <v>2.657</v>
+      </c>
+      <c r="F266">
+        <v>11.506</v>
+      </c>
+      <c r="G266">
+        <v>19.954999999999998</v>
+      </c>
+      <c r="H266">
+        <v>27.471</v>
+      </c>
+      <c r="I266">
+        <v>34.366999999999997</v>
+      </c>
+      <c r="J266">
+        <v>35.133000000000003</v>
+      </c>
+      <c r="K266">
+        <v>166.17500000000001</v>
+      </c>
+      <c r="L266">
+        <v>60.021000000000001</v>
+      </c>
+      <c r="M266">
+        <v>166.52199999999999</v>
+      </c>
+      <c r="N266">
+        <v>20</v>
+      </c>
+      <c r="O266">
+        <v>9974</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q267" s="17">
+        <f>SUM(L261:L266)</f>
+        <v>6011.2170000000006</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>29</v>
+      </c>
+      <c r="B268" t="s">
+        <v>62</v>
+      </c>
+      <c r="C268" t="s">
+        <v>69</v>
+      </c>
+      <c r="D268">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E268">
+        <v>3.9940000000000002</v>
+      </c>
+      <c r="F268">
+        <v>16.75</v>
+      </c>
+      <c r="G268">
+        <v>31.835000000000001</v>
+      </c>
+      <c r="H268">
+        <v>52.570999999999998</v>
+      </c>
+      <c r="I268">
+        <v>1219.3699999999999</v>
+      </c>
+      <c r="J268">
+        <v>1221.576</v>
+      </c>
+      <c r="K268">
+        <v>194.25200000000001</v>
+      </c>
+      <c r="L268">
+        <v>560.53800000000001</v>
+      </c>
+      <c r="M268">
+        <v>194.41900000000001</v>
+      </c>
+      <c r="N268">
+        <v>30</v>
+      </c>
+      <c r="O268">
+        <v>108885</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>29</v>
+      </c>
+      <c r="B269" t="s">
+        <v>62</v>
+      </c>
+      <c r="C269" t="s">
+        <v>70</v>
+      </c>
+      <c r="D269">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E269">
+        <v>4.133</v>
+      </c>
+      <c r="F269">
+        <v>17.300999999999998</v>
+      </c>
+      <c r="G269">
+        <v>32.651000000000003</v>
+      </c>
+      <c r="H269">
+        <v>1170.28</v>
+      </c>
+      <c r="I269">
+        <v>1185.1980000000001</v>
+      </c>
+      <c r="J269">
+        <v>1219.4380000000001</v>
+      </c>
+      <c r="K269">
+        <v>194.274</v>
+      </c>
+      <c r="L269">
+        <v>556.59500000000003</v>
+      </c>
+      <c r="M269">
+        <v>194.41900000000001</v>
+      </c>
+      <c r="N269">
+        <v>30</v>
+      </c>
+      <c r="O269">
+        <v>108132</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>29</v>
+      </c>
+      <c r="B270" t="s">
+        <v>62</v>
+      </c>
+      <c r="C270" t="s">
+        <v>71</v>
+      </c>
+      <c r="D270">
+        <v>0.435</v>
+      </c>
+      <c r="E270">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="F270">
+        <v>16.443999999999999</v>
+      </c>
+      <c r="G270">
+        <v>30.672999999999998</v>
+      </c>
+      <c r="H270">
+        <v>51.716000000000001</v>
+      </c>
+      <c r="I270">
+        <v>1219.0509999999999</v>
+      </c>
+      <c r="J270">
+        <v>1225.434</v>
+      </c>
+      <c r="K270">
+        <v>194.26400000000001</v>
+      </c>
+      <c r="L270">
+        <v>4442.9409999999998</v>
+      </c>
+      <c r="M270">
+        <v>194.41900000000001</v>
+      </c>
+      <c r="N270">
+        <v>30</v>
+      </c>
+      <c r="O270">
+        <v>863099</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>29</v>
+      </c>
+      <c r="B271" t="s">
+        <v>62</v>
+      </c>
+      <c r="C271" t="s">
+        <v>72</v>
+      </c>
+      <c r="D271">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="E271">
+        <v>3.9430000000000001</v>
+      </c>
+      <c r="F271">
+        <v>16.228999999999999</v>
+      </c>
+      <c r="G271">
+        <v>30.052</v>
+      </c>
+      <c r="H271">
+        <v>42.695999999999998</v>
+      </c>
+      <c r="I271">
+        <v>54.969000000000001</v>
+      </c>
+      <c r="J271">
+        <v>56.603000000000002</v>
+      </c>
+      <c r="K271">
+        <v>194.15799999999999</v>
+      </c>
+      <c r="L271">
+        <v>62.289000000000001</v>
+      </c>
+      <c r="M271">
+        <v>194.41900000000001</v>
+      </c>
+      <c r="N271">
+        <v>30</v>
+      </c>
+      <c r="O271">
+        <v>12094</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>29</v>
+      </c>
+      <c r="B272" t="s">
+        <v>62</v>
+      </c>
+      <c r="C272" t="s">
+        <v>73</v>
+      </c>
+      <c r="D272">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E272">
+        <v>4.3760000000000003</v>
+      </c>
+      <c r="F272">
+        <v>21.010999999999999</v>
+      </c>
+      <c r="G272">
+        <v>37.097999999999999</v>
+      </c>
+      <c r="H272">
+        <v>60.087000000000003</v>
+      </c>
+      <c r="I272">
+        <v>1183.2670000000001</v>
+      </c>
+      <c r="J272">
+        <v>1220.1569999999999</v>
+      </c>
+      <c r="K272">
+        <v>194.18</v>
+      </c>
+      <c r="L272">
+        <v>493.37700000000001</v>
+      </c>
+      <c r="M272">
+        <v>194.41900000000001</v>
+      </c>
+      <c r="N272">
+        <v>30</v>
+      </c>
+      <c r="O272">
+        <v>95804</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>29</v>
+      </c>
+      <c r="B273" t="s">
+        <v>62</v>
+      </c>
+      <c r="C273" t="s">
+        <v>74</v>
+      </c>
+      <c r="D273">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E273">
+        <v>3.9409999999999998</v>
+      </c>
+      <c r="F273">
+        <v>16.414999999999999</v>
+      </c>
+      <c r="G273">
+        <v>31.544</v>
+      </c>
+      <c r="H273">
+        <v>51.366999999999997</v>
+      </c>
+      <c r="I273">
+        <v>1080.028</v>
+      </c>
+      <c r="J273">
+        <v>1219.9090000000001</v>
+      </c>
+      <c r="K273">
+        <v>194.09399999999999</v>
+      </c>
+      <c r="L273">
+        <v>61.753999999999998</v>
+      </c>
+      <c r="M273">
+        <v>194.41900000000001</v>
+      </c>
+      <c r="N273">
+        <v>30</v>
+      </c>
+      <c r="O273">
+        <v>11986</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q274" s="17">
+        <f>SUM(L268:L273)</f>
+        <v>6177.4939999999997</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q275" s="17"/>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O276" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q276" s="17">
+        <f>MAX(Q274,Q267,Q260,Q253,Q246)</f>
+        <v>6177.4939999999997</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O277" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q277" s="17">
+        <f>MAX(Q208:Q235)</f>
+        <v>8527.9740000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q278" s="17"/>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O279" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P279" s="14"/>
+      <c r="Q279" s="18">
+        <f>(Q277-Q276)/Q276</f>
+        <v>0.38049085923839027</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q280" s="17"/>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q281" s="17"/>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q282" s="17"/>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q283" s="17"/>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q284" s="17"/>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q285" s="17"/>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q286" s="17"/>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q287" s="17"/>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q288" s="17"/>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q289" s="17"/>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q290" s="17"/>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A297" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B297" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B302" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D302" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E302" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F302" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G302" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H302" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I302" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J302" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K302" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L302" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M302" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N302" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O302" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q302" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>26</v>
+      </c>
+      <c r="B303" t="s">
+        <v>62</v>
+      </c>
+      <c r="C303" t="s">
+        <v>63</v>
+      </c>
+      <c r="D303">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="E303">
+        <v>1.56</v>
+      </c>
+      <c r="F303">
+        <v>9.0259999999999998</v>
+      </c>
+      <c r="G303">
+        <v>26.745999999999999</v>
+      </c>
+      <c r="H303">
+        <v>43.098999999999997</v>
+      </c>
+      <c r="I303">
+        <v>65.018000000000001</v>
+      </c>
+      <c r="J303">
+        <v>79.034999999999997</v>
+      </c>
+      <c r="K303">
+        <v>95.015000000000001</v>
+      </c>
+      <c r="L303">
+        <v>761.27700000000004</v>
+      </c>
+      <c r="M303">
+        <v>95.23</v>
+      </c>
+      <c r="N303">
+        <v>20</v>
+      </c>
+      <c r="O303">
+        <v>72332</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>26</v>
+      </c>
+      <c r="B304" t="s">
+        <v>62</v>
+      </c>
+      <c r="C304" t="s">
+        <v>65</v>
+      </c>
+      <c r="D304">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E304">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F304">
+        <v>7.4740000000000002</v>
+      </c>
+      <c r="G304">
+        <v>25.792999999999999</v>
+      </c>
+      <c r="H304">
+        <v>41.585999999999999</v>
+      </c>
+      <c r="I304">
+        <v>56.683999999999997</v>
+      </c>
+      <c r="J304">
+        <v>98.85</v>
+      </c>
+      <c r="K304">
+        <v>95.046999999999997</v>
+      </c>
+      <c r="L304">
+        <v>6064.4849999999997</v>
+      </c>
+      <c r="M304">
+        <v>95.23</v>
+      </c>
+      <c r="N304">
+        <v>20</v>
+      </c>
+      <c r="O304">
+        <v>576405</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>26</v>
+      </c>
+      <c r="B305" t="s">
+        <v>62</v>
+      </c>
+      <c r="C305" t="s">
+        <v>64</v>
+      </c>
+      <c r="D305">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E305">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="F305">
+        <v>9.9619999999999997</v>
+      </c>
+      <c r="G305">
+        <v>24.649000000000001</v>
+      </c>
+      <c r="H305">
+        <v>45.488</v>
+      </c>
+      <c r="I305">
+        <v>54.786000000000001</v>
+      </c>
+      <c r="J305">
+        <v>55.819000000000003</v>
+      </c>
+      <c r="K305">
+        <v>95.046000000000006</v>
+      </c>
+      <c r="L305">
+        <v>82.623000000000005</v>
+      </c>
+      <c r="M305">
+        <v>95.23</v>
+      </c>
+      <c r="N305">
+        <v>20</v>
+      </c>
+      <c r="O305">
+        <v>7853</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>26</v>
+      </c>
+      <c r="B306" t="s">
+        <v>62</v>
+      </c>
+      <c r="C306" t="s">
+        <v>66</v>
+      </c>
+      <c r="D306">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E306">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="F306">
+        <v>9.9550000000000001</v>
+      </c>
+      <c r="G306">
+        <v>30.35</v>
+      </c>
+      <c r="H306">
+        <v>39.447000000000003</v>
+      </c>
+      <c r="I306">
+        <v>42.744999999999997</v>
+      </c>
+      <c r="J306">
+        <v>43.110999999999997</v>
+      </c>
+      <c r="K306">
+        <v>94.997</v>
+      </c>
+      <c r="L306">
+        <v>84.34</v>
+      </c>
+      <c r="M306">
+        <v>95.23</v>
+      </c>
+      <c r="N306">
+        <v>20</v>
+      </c>
+      <c r="O306">
+        <v>8012</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>26</v>
+      </c>
+      <c r="B307" t="s">
+        <v>62</v>
+      </c>
+      <c r="C307" t="s">
+        <v>67</v>
+      </c>
+      <c r="D307">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E307">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F307">
+        <v>7.42</v>
+      </c>
+      <c r="G307">
+        <v>26.146000000000001</v>
+      </c>
+      <c r="H307">
+        <v>37.969000000000001</v>
+      </c>
+      <c r="I307">
+        <v>51.862000000000002</v>
+      </c>
+      <c r="J307">
+        <v>53.656999999999996</v>
+      </c>
+      <c r="K307">
+        <v>95.042000000000002</v>
+      </c>
+      <c r="L307">
+        <v>754.10900000000004</v>
+      </c>
+      <c r="M307">
+        <v>95.23</v>
+      </c>
+      <c r="N307">
+        <v>20</v>
+      </c>
+      <c r="O307">
+        <v>71672</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>26</v>
+      </c>
+      <c r="B308" t="s">
+        <v>62</v>
+      </c>
+      <c r="C308" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E308">
+        <v>8.2319999999999993</v>
+      </c>
+      <c r="F308">
+        <v>26.460999999999999</v>
+      </c>
+      <c r="G308">
+        <v>48.085000000000001</v>
+      </c>
+      <c r="H308">
+        <v>58.816000000000003</v>
+      </c>
+      <c r="I308">
+        <v>72.971999999999994</v>
+      </c>
+      <c r="J308">
+        <v>74.332999999999998</v>
+      </c>
+      <c r="K308">
+        <v>95.028000000000006</v>
+      </c>
+      <c r="L308">
+        <v>670.60900000000004</v>
+      </c>
+      <c r="M308">
+        <v>95.23</v>
+      </c>
+      <c r="N308">
+        <v>20</v>
+      </c>
+      <c r="O308">
+        <v>63726</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q309" s="17">
+        <f>SUM(L303:L308)</f>
+        <v>8417.4429999999993</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>26</v>
+      </c>
+      <c r="B310" t="s">
+        <v>62</v>
+      </c>
+      <c r="C310" t="s">
+        <v>63</v>
+      </c>
+      <c r="D310">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="E310">
+        <v>2.38</v>
+      </c>
+      <c r="F310">
+        <v>13.75</v>
+      </c>
+      <c r="G310">
+        <v>34.813000000000002</v>
+      </c>
+      <c r="H310">
+        <v>47.387999999999998</v>
+      </c>
+      <c r="I310">
+        <v>60.814</v>
+      </c>
+      <c r="J310">
+        <v>70.793999999999997</v>
+      </c>
+      <c r="K310">
+        <v>144.80799999999999</v>
+      </c>
+      <c r="L310">
+        <v>745.45399999999995</v>
+      </c>
+      <c r="M310">
+        <v>145.08600000000001</v>
+      </c>
+      <c r="N310">
+        <v>30</v>
+      </c>
+      <c r="O310">
+        <v>107947</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>26</v>
+      </c>
+      <c r="B311" t="s">
+        <v>62</v>
+      </c>
+      <c r="C311" t="s">
+        <v>64</v>
+      </c>
+      <c r="D311">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E311">
+        <v>3.4060000000000001</v>
+      </c>
+      <c r="F311">
+        <v>15.49</v>
+      </c>
+      <c r="G311">
+        <v>34.43</v>
+      </c>
+      <c r="H311">
+        <v>41.738999999999997</v>
+      </c>
+      <c r="I311">
+        <v>52.234999999999999</v>
+      </c>
+      <c r="J311">
+        <v>53.59</v>
+      </c>
+      <c r="K311">
+        <v>144.78700000000001</v>
+      </c>
+      <c r="L311">
+        <v>80.283000000000001</v>
+      </c>
+      <c r="M311">
+        <v>145.08600000000001</v>
+      </c>
+      <c r="N311">
+        <v>30</v>
+      </c>
+      <c r="O311">
+        <v>11624</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>26</v>
+      </c>
+      <c r="B312" t="s">
+        <v>62</v>
+      </c>
+      <c r="C312" t="s">
+        <v>65</v>
+      </c>
+      <c r="D312">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E312">
+        <v>1.39</v>
+      </c>
+      <c r="F312">
+        <v>11.602</v>
+      </c>
+      <c r="G312">
+        <v>33</v>
+      </c>
+      <c r="H312">
+        <v>46.326999999999998</v>
+      </c>
+      <c r="I312">
+        <v>66.53</v>
+      </c>
+      <c r="J312">
+        <v>131.86099999999999</v>
+      </c>
+      <c r="K312">
+        <v>144.839</v>
+      </c>
+      <c r="L312">
+        <v>5968.3230000000003</v>
+      </c>
+      <c r="M312">
+        <v>145.08600000000001</v>
+      </c>
+      <c r="N312">
+        <v>30</v>
+      </c>
+      <c r="O312">
+        <v>864440</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>26</v>
+      </c>
+      <c r="B313" t="s">
+        <v>62</v>
+      </c>
+      <c r="C313" t="s">
+        <v>66</v>
+      </c>
+      <c r="D313">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E313">
+        <v>3.456</v>
+      </c>
+      <c r="F313">
+        <v>15.817</v>
+      </c>
+      <c r="G313">
+        <v>34.000999999999998</v>
+      </c>
+      <c r="H313">
+        <v>42.03</v>
+      </c>
+      <c r="I313">
+        <v>46.168999999999997</v>
+      </c>
+      <c r="J313">
+        <v>46.606999999999999</v>
+      </c>
+      <c r="K313">
+        <v>144.70699999999999</v>
+      </c>
+      <c r="L313">
+        <v>81.855999999999995</v>
+      </c>
+      <c r="M313">
+        <v>145.08600000000001</v>
+      </c>
+      <c r="N313">
+        <v>30</v>
+      </c>
+      <c r="O313">
+        <v>11845</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>26</v>
+      </c>
+      <c r="B314" t="s">
+        <v>62</v>
+      </c>
+      <c r="C314" t="s">
+        <v>67</v>
+      </c>
+      <c r="D314">
+        <v>0.218</v>
+      </c>
+      <c r="E314">
+        <v>1.405</v>
+      </c>
+      <c r="F314">
+        <v>11.603999999999999</v>
+      </c>
+      <c r="G314">
+        <v>33.186</v>
+      </c>
+      <c r="H314">
+        <v>49.433999999999997</v>
+      </c>
+      <c r="I314">
+        <v>99.817999999999998</v>
+      </c>
+      <c r="J314">
+        <v>108.355</v>
+      </c>
+      <c r="K314">
+        <v>144.804</v>
+      </c>
+      <c r="L314">
+        <v>747.39</v>
+      </c>
+      <c r="M314">
+        <v>145.08600000000001</v>
+      </c>
+      <c r="N314">
+        <v>30</v>
+      </c>
+      <c r="O314">
+        <v>108225</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>26</v>
+      </c>
+      <c r="B315" t="s">
+        <v>62</v>
+      </c>
+      <c r="C315" t="s">
+        <v>68</v>
+      </c>
+      <c r="D315">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E315">
+        <v>13.23</v>
+      </c>
+      <c r="F315">
+        <v>41.637999999999998</v>
+      </c>
+      <c r="G315">
+        <v>61.381999999999998</v>
+      </c>
+      <c r="H315">
+        <v>76.881</v>
+      </c>
+      <c r="I315">
+        <v>88.260999999999996</v>
+      </c>
+      <c r="J315">
+        <v>90.492999999999995</v>
+      </c>
+      <c r="K315">
+        <v>144.78200000000001</v>
+      </c>
+      <c r="L315">
+        <v>662.51099999999997</v>
+      </c>
+      <c r="M315">
+        <v>145.08600000000001</v>
+      </c>
+      <c r="N315">
+        <v>30</v>
+      </c>
+      <c r="O315">
+        <v>95919</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q316" s="17">
+        <f>SUM(L310:L315)</f>
+        <v>8285.8170000000009</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>29</v>
+      </c>
+      <c r="B317" t="s">
+        <v>62</v>
+      </c>
+      <c r="C317" t="s">
+        <v>69</v>
+      </c>
+      <c r="D317">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E317">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="F317">
+        <v>14.173999999999999</v>
+      </c>
+      <c r="G317">
+        <v>32.994999999999997</v>
+      </c>
+      <c r="H317">
+        <v>56.957999999999998</v>
+      </c>
+      <c r="I317">
+        <v>74.878</v>
+      </c>
+      <c r="J317">
+        <v>80.402000000000001</v>
+      </c>
+      <c r="K317">
+        <v>138.79900000000001</v>
+      </c>
+      <c r="L317">
+        <v>518.04100000000005</v>
+      </c>
+      <c r="M317">
+        <v>139.10300000000001</v>
+      </c>
+      <c r="N317">
+        <v>20</v>
+      </c>
+      <c r="O317">
+        <v>71903</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318" t="s">
+        <v>62</v>
+      </c>
+      <c r="C318" t="s">
+        <v>70</v>
+      </c>
+      <c r="D318">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E318">
+        <v>2.819</v>
+      </c>
+      <c r="F318">
+        <v>15.154</v>
+      </c>
+      <c r="G318">
+        <v>34.503</v>
+      </c>
+      <c r="H318">
+        <v>63.052999999999997</v>
+      </c>
+      <c r="I318">
+        <v>80.84</v>
+      </c>
+      <c r="J318">
+        <v>84.977999999999994</v>
+      </c>
+      <c r="K318">
+        <v>138.85499999999999</v>
+      </c>
+      <c r="L318">
+        <v>520.471</v>
+      </c>
+      <c r="M318">
+        <v>139.10300000000001</v>
+      </c>
+      <c r="N318">
+        <v>20</v>
+      </c>
+      <c r="O318">
+        <v>72270</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>29</v>
+      </c>
+      <c r="B319" t="s">
+        <v>62</v>
+      </c>
+      <c r="C319" t="s">
+        <v>71</v>
+      </c>
+      <c r="D319">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E319">
+        <v>2.6720000000000002</v>
+      </c>
+      <c r="F319">
+        <v>14.286</v>
+      </c>
+      <c r="G319">
+        <v>32.002000000000002</v>
+      </c>
+      <c r="H319">
+        <v>60.204000000000001</v>
+      </c>
+      <c r="I319">
+        <v>92.216999999999999</v>
+      </c>
+      <c r="J319">
+        <v>121.223</v>
+      </c>
+      <c r="K319">
+        <v>138.886</v>
+      </c>
+      <c r="L319">
+        <v>4148.3729999999996</v>
+      </c>
+      <c r="M319">
+        <v>139.10300000000001</v>
+      </c>
+      <c r="N319">
+        <v>20</v>
+      </c>
+      <c r="O319">
+        <v>576151</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>29</v>
+      </c>
+      <c r="B320" t="s">
+        <v>62</v>
+      </c>
+      <c r="C320" t="s">
+        <v>72</v>
+      </c>
+      <c r="D320">
+        <v>0.46</v>
+      </c>
+      <c r="E320">
+        <v>2.6579999999999999</v>
+      </c>
+      <c r="F320">
+        <v>15.86</v>
+      </c>
+      <c r="G320">
+        <v>32.588000000000001</v>
+      </c>
+      <c r="H320">
+        <v>48.533000000000001</v>
+      </c>
+      <c r="I320">
+        <v>79.819999999999993</v>
+      </c>
+      <c r="J320">
+        <v>83.296000000000006</v>
+      </c>
+      <c r="K320">
+        <v>138.72900000000001</v>
+      </c>
+      <c r="L320">
+        <v>57.701999999999998</v>
+      </c>
+      <c r="M320">
+        <v>139.10300000000001</v>
+      </c>
+      <c r="N320">
+        <v>20</v>
+      </c>
+      <c r="O320">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>29</v>
+      </c>
+      <c r="B321" t="s">
+        <v>62</v>
+      </c>
+      <c r="C321" t="s">
+        <v>73</v>
+      </c>
+      <c r="D321">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E321">
+        <v>2.9820000000000002</v>
+      </c>
+      <c r="F321">
+        <v>17.754000000000001</v>
+      </c>
+      <c r="G321">
+        <v>40.031999999999996</v>
+      </c>
+      <c r="H321">
+        <v>65.376000000000005</v>
+      </c>
+      <c r="I321">
+        <v>83.57</v>
+      </c>
+      <c r="J321">
+        <v>85.525999999999996</v>
+      </c>
+      <c r="K321">
+        <v>138.82599999999999</v>
+      </c>
+      <c r="L321">
+        <v>459.32600000000002</v>
+      </c>
+      <c r="M321">
+        <v>139.10300000000001</v>
+      </c>
+      <c r="N321">
+        <v>20</v>
+      </c>
+      <c r="O321">
+        <v>63766</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>29</v>
+      </c>
+      <c r="B322" t="s">
+        <v>62</v>
+      </c>
+      <c r="C322" t="s">
+        <v>74</v>
+      </c>
+      <c r="D322">
+        <v>0.43</v>
+      </c>
+      <c r="E322">
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="F322">
+        <v>14.032999999999999</v>
+      </c>
+      <c r="G322">
+        <v>30.08</v>
+      </c>
+      <c r="H322">
+        <v>63.088000000000001</v>
+      </c>
+      <c r="I322">
+        <v>86.44</v>
+      </c>
+      <c r="J322">
+        <v>89.034999999999997</v>
+      </c>
+      <c r="K322">
+        <v>138.53399999999999</v>
+      </c>
+      <c r="L322">
+        <v>57.061999999999998</v>
+      </c>
+      <c r="M322">
+        <v>139.10300000000001</v>
+      </c>
+      <c r="N322">
+        <v>20</v>
+      </c>
+      <c r="O322">
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q323" s="17">
+        <f>SUM(L317:L322)</f>
+        <v>5760.9750000000004</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>29</v>
+      </c>
+      <c r="B324" t="s">
+        <v>62</v>
+      </c>
+      <c r="C324" t="s">
+        <v>69</v>
+      </c>
+      <c r="D324">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E324">
+        <v>3.88</v>
+      </c>
+      <c r="F324">
+        <v>17.922999999999998</v>
+      </c>
+      <c r="G324">
+        <v>33.043999999999997</v>
+      </c>
+      <c r="H324">
+        <v>48.103999999999999</v>
+      </c>
+      <c r="I324">
+        <v>217.048</v>
+      </c>
+      <c r="J324">
+        <v>876.58699999999999</v>
+      </c>
+      <c r="K324">
+        <v>141.131</v>
+      </c>
+      <c r="L324">
+        <v>571.85900000000004</v>
+      </c>
+      <c r="M324">
+        <v>141.37200000000001</v>
+      </c>
+      <c r="N324">
+        <v>30</v>
+      </c>
+      <c r="O324">
+        <v>80707</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>29</v>
+      </c>
+      <c r="B325" t="s">
+        <v>62</v>
+      </c>
+      <c r="C325" t="s">
+        <v>70</v>
+      </c>
+      <c r="D325">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E325">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="F325">
+        <v>19.036000000000001</v>
+      </c>
+      <c r="G325">
+        <v>34.917000000000002</v>
+      </c>
+      <c r="H325">
+        <v>46.569000000000003</v>
+      </c>
+      <c r="I325">
+        <v>865.48</v>
+      </c>
+      <c r="J325">
+        <v>867.36199999999997</v>
+      </c>
+      <c r="K325">
+        <v>141.137</v>
+      </c>
+      <c r="L325">
+        <v>571.65700000000004</v>
+      </c>
+      <c r="M325">
+        <v>141.37200000000001</v>
+      </c>
+      <c r="N325">
+        <v>30</v>
+      </c>
+      <c r="O325">
+        <v>80682</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>29</v>
+      </c>
+      <c r="B326" t="s">
+        <v>62</v>
+      </c>
+      <c r="C326" t="s">
+        <v>71</v>
+      </c>
+      <c r="D326">
+        <v>0.432</v>
+      </c>
+      <c r="E326">
+        <v>3.8690000000000002</v>
+      </c>
+      <c r="F326">
+        <v>18.291</v>
+      </c>
+      <c r="G326">
+        <v>33.802</v>
+      </c>
+      <c r="H326">
+        <v>50.695</v>
+      </c>
+      <c r="I326">
+        <v>867.88499999999999</v>
+      </c>
+      <c r="J326">
+        <v>877.976</v>
+      </c>
+      <c r="K326">
+        <v>141.18299999999999</v>
+      </c>
+      <c r="L326">
+        <v>4592.04</v>
+      </c>
+      <c r="M326">
+        <v>141.37200000000001</v>
+      </c>
+      <c r="N326">
+        <v>30</v>
+      </c>
+      <c r="O326">
+        <v>648318</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>29</v>
+      </c>
+      <c r="B327" t="s">
+        <v>62</v>
+      </c>
+      <c r="C327" t="s">
+        <v>72</v>
+      </c>
+      <c r="D327">
+        <v>0.46</v>
+      </c>
+      <c r="E327">
+        <v>3.843</v>
+      </c>
+      <c r="F327">
+        <v>18.129000000000001</v>
+      </c>
+      <c r="G327">
+        <v>34.652999999999999</v>
+      </c>
+      <c r="H327">
+        <v>55.067</v>
+      </c>
+      <c r="I327">
+        <v>56.295999999999999</v>
+      </c>
+      <c r="J327">
+        <v>56.432000000000002</v>
+      </c>
+      <c r="K327">
+        <v>141.06700000000001</v>
+      </c>
+      <c r="L327">
+        <v>62.843000000000004</v>
+      </c>
+      <c r="M327">
+        <v>141.37200000000001</v>
+      </c>
+      <c r="N327">
+        <v>30</v>
+      </c>
+      <c r="O327">
+        <v>8865</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>29</v>
+      </c>
+      <c r="B328" t="s">
+        <v>62</v>
+      </c>
+      <c r="C328" t="s">
+        <v>73</v>
+      </c>
+      <c r="D328">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E328">
+        <v>4.226</v>
+      </c>
+      <c r="F328">
+        <v>25.716000000000001</v>
+      </c>
+      <c r="G328">
+        <v>40.673999999999999</v>
+      </c>
+      <c r="H328">
+        <v>75.792000000000002</v>
+      </c>
+      <c r="I328">
+        <v>876.33</v>
+      </c>
+      <c r="J328">
+        <v>876.33699999999999</v>
+      </c>
+      <c r="K328">
+        <v>141.125</v>
+      </c>
+      <c r="L328">
+        <v>512.79399999999998</v>
+      </c>
+      <c r="M328">
+        <v>141.37200000000001</v>
+      </c>
+      <c r="N328">
+        <v>30</v>
+      </c>
+      <c r="O328">
+        <v>72368</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>29</v>
+      </c>
+      <c r="B329" t="s">
+        <v>62</v>
+      </c>
+      <c r="C329" t="s">
+        <v>74</v>
+      </c>
+      <c r="D329">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E329">
+        <v>3.827</v>
+      </c>
+      <c r="F329">
+        <v>20.335000000000001</v>
+      </c>
+      <c r="G329">
+        <v>34.454000000000001</v>
+      </c>
+      <c r="H329">
+        <v>48.296999999999997</v>
+      </c>
+      <c r="I329">
+        <v>55.503</v>
+      </c>
+      <c r="J329">
+        <v>56.304000000000002</v>
+      </c>
+      <c r="K329">
+        <v>141.09</v>
+      </c>
+      <c r="L329">
+        <v>64.215000000000003</v>
+      </c>
+      <c r="M329">
+        <v>141.37200000000001</v>
+      </c>
+      <c r="N329">
+        <v>30</v>
+      </c>
+      <c r="O329">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q330" s="17">
+        <f>SUM(L324:L329)</f>
+        <v>6375.4080000000004</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>29</v>
+      </c>
+      <c r="B331" t="s">
+        <v>62</v>
+      </c>
+      <c r="C331" t="s">
+        <v>69</v>
+      </c>
+      <c r="D331">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E331">
+        <v>5.0940000000000003</v>
+      </c>
+      <c r="F331">
+        <v>25.766999999999999</v>
+      </c>
+      <c r="G331">
+        <v>44.84</v>
+      </c>
+      <c r="H331">
+        <v>62.688000000000002</v>
+      </c>
+      <c r="I331">
+        <v>91.516999999999996</v>
+      </c>
+      <c r="J331">
+        <v>1660.482</v>
+      </c>
+      <c r="K331">
+        <v>186.55799999999999</v>
+      </c>
+      <c r="L331">
+        <v>575.85599999999999</v>
+      </c>
+      <c r="M331">
+        <v>186.82400000000001</v>
+      </c>
+      <c r="N331">
+        <v>40</v>
+      </c>
+      <c r="O331">
+        <v>107430</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>29</v>
+      </c>
+      <c r="B332" t="s">
+        <v>62</v>
+      </c>
+      <c r="C332" t="s">
+        <v>70</v>
+      </c>
+      <c r="D332">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E332">
+        <v>5.234</v>
+      </c>
+      <c r="F332">
+        <v>26.872</v>
+      </c>
+      <c r="G332">
+        <v>47.008000000000003</v>
+      </c>
+      <c r="H332">
+        <v>72.13</v>
+      </c>
+      <c r="I332">
+        <v>1660.11</v>
+      </c>
+      <c r="J332">
+        <v>1660.9079999999999</v>
+      </c>
+      <c r="K332">
+        <v>186.56299999999999</v>
+      </c>
+      <c r="L332">
+        <v>581.02099999999996</v>
+      </c>
+      <c r="M332">
+        <v>186.82400000000001</v>
+      </c>
+      <c r="N332">
+        <v>40</v>
+      </c>
+      <c r="O332">
+        <v>108397</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>29</v>
+      </c>
+      <c r="B333" t="s">
+        <v>62</v>
+      </c>
+      <c r="C333" t="s">
+        <v>71</v>
+      </c>
+      <c r="D333">
+        <v>0.443</v>
+      </c>
+      <c r="E333">
+        <v>5.0819999999999999</v>
+      </c>
+      <c r="F333">
+        <v>25.951000000000001</v>
+      </c>
+      <c r="G333">
+        <v>45.433</v>
+      </c>
+      <c r="H333">
+        <v>81.430000000000007</v>
+      </c>
+      <c r="I333">
+        <v>1661.2560000000001</v>
+      </c>
+      <c r="J333">
+        <v>1674.81</v>
+      </c>
+      <c r="K333">
+        <v>186.6</v>
+      </c>
+      <c r="L333">
+        <v>4632.299</v>
+      </c>
+      <c r="M333">
+        <v>186.82400000000001</v>
+      </c>
+      <c r="N333">
+        <v>40</v>
+      </c>
+      <c r="O333">
+        <v>864387</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>29</v>
+      </c>
+      <c r="B334" t="s">
+        <v>62</v>
+      </c>
+      <c r="C334" t="s">
+        <v>72</v>
+      </c>
+      <c r="D334">
+        <v>0.45</v>
+      </c>
+      <c r="E334">
+        <v>5.0110000000000001</v>
+      </c>
+      <c r="F334">
+        <v>28.535</v>
+      </c>
+      <c r="G334">
+        <v>45.844999999999999</v>
+      </c>
+      <c r="H334">
+        <v>74.025999999999996</v>
+      </c>
+      <c r="I334">
+        <v>102.506</v>
+      </c>
+      <c r="J334">
+        <v>106.17100000000001</v>
+      </c>
+      <c r="K334">
+        <v>186.45099999999999</v>
+      </c>
+      <c r="L334">
+        <v>63.951999999999998</v>
+      </c>
+      <c r="M334">
+        <v>186.82400000000001</v>
+      </c>
+      <c r="N334">
+        <v>40</v>
+      </c>
+      <c r="O334">
+        <v>11924</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>29</v>
+      </c>
+      <c r="B335" t="s">
+        <v>62</v>
+      </c>
+      <c r="C335" t="s">
+        <v>73</v>
+      </c>
+      <c r="D335">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="E335">
+        <v>5.5289999999999999</v>
+      </c>
+      <c r="F335">
+        <v>34.009</v>
+      </c>
+      <c r="G335">
+        <v>57.816000000000003</v>
+      </c>
+      <c r="H335">
+        <v>86.525000000000006</v>
+      </c>
+      <c r="I335">
+        <v>1666.6859999999999</v>
+      </c>
+      <c r="J335">
+        <v>1674.3140000000001</v>
+      </c>
+      <c r="K335">
+        <v>186.548</v>
+      </c>
+      <c r="L335">
+        <v>514.16499999999996</v>
+      </c>
+      <c r="M335">
+        <v>186.82400000000001</v>
+      </c>
+      <c r="N335">
+        <v>40</v>
+      </c>
+      <c r="O335">
+        <v>95916</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>29</v>
+      </c>
+      <c r="B336" t="s">
+        <v>62</v>
+      </c>
+      <c r="C336" t="s">
+        <v>74</v>
+      </c>
+      <c r="D336">
+        <v>0.436</v>
+      </c>
+      <c r="E336">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="F336">
+        <v>26.506</v>
+      </c>
+      <c r="G336">
+        <v>48.03</v>
+      </c>
+      <c r="H336">
+        <v>86.582999999999998</v>
+      </c>
+      <c r="I336">
+        <v>91.596999999999994</v>
+      </c>
+      <c r="J336">
+        <v>91.700999999999993</v>
+      </c>
+      <c r="K336">
+        <v>186.47499999999999</v>
+      </c>
+      <c r="L336">
+        <v>64.063000000000002</v>
+      </c>
+      <c r="M336">
+        <v>186.82400000000001</v>
+      </c>
+      <c r="N336">
+        <v>40</v>
+      </c>
+      <c r="O336">
+        <v>11946</v>
+      </c>
+    </row>
+    <row r="337" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q337" s="17">
+        <f>SUM(L331:L336)</f>
+        <v>6431.3559999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
